--- a/10. TTCA/TTCA_train.xlsx
+++ b/10. TTCA/TTCA_train.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Downloads/UniDL4BioPep-main/10. TTCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF023BF-32E4-FE46-9BEC-AF8953C561FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC337E3-7280-6A4B-B47C-F4B8CF7CFE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="1480" windowWidth="28040" windowHeight="17440" xr2:uid="{5A2F1F2B-7512-2B4C-9D4D-8EA1D2A5856A}"/>
   </bookViews>
@@ -2433,9 +2433,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2473,7 +2473,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2579,7 +2579,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2721,7 +2721,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2732,7 +2732,7 @@
   <dimension ref="A1:B789"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2750,7 +2750,7 @@
         <v>184</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2758,7 +2758,7 @@
         <v>167</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2766,7 +2766,7 @@
         <v>642</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2774,7 +2774,7 @@
         <v>77</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2782,7 +2782,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2790,7 +2790,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2798,7 +2798,7 @@
         <v>530</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2806,7 +2806,7 @@
         <v>354</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2814,7 +2814,7 @@
         <v>507</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2822,7 +2822,7 @@
         <v>146</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2830,7 +2830,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2838,7 +2838,7 @@
         <v>59</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2846,7 +2846,7 @@
         <v>232</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2854,7 +2854,7 @@
         <v>133</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2862,7 +2862,7 @@
         <v>703</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2870,7 +2870,7 @@
         <v>730</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2878,7 +2878,7 @@
         <v>107</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2886,7 +2886,7 @@
         <v>663</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2894,7 +2894,7 @@
         <v>428</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2902,7 +2902,7 @@
         <v>125</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2910,7 +2910,7 @@
         <v>388</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2918,7 +2918,7 @@
         <v>173</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2926,7 +2926,7 @@
         <v>159</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -2934,7 +2934,7 @@
         <v>422</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -2942,7 +2942,7 @@
         <v>351</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -2950,7 +2950,7 @@
         <v>153</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -2958,7 +2958,7 @@
         <v>52</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -2966,7 +2966,7 @@
         <v>226</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -2974,7 +2974,7 @@
         <v>57</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2982,7 +2982,7 @@
         <v>225</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -2990,7 +2990,7 @@
         <v>231</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2998,7 +2998,7 @@
         <v>392</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3006,7 +3006,7 @@
         <v>101</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3014,7 +3014,7 @@
         <v>115</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3022,7 +3022,7 @@
         <v>60</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3030,7 +3030,7 @@
         <v>751</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3038,7 +3038,7 @@
         <v>741</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3046,7 +3046,7 @@
         <v>714</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3054,7 +3054,7 @@
         <v>559</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3062,7 +3062,7 @@
         <v>405</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3070,7 +3070,7 @@
         <v>721</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3078,7 +3078,7 @@
         <v>605</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3086,7 +3086,7 @@
         <v>534</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3094,7 +3094,7 @@
         <v>124</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3102,7 +3102,7 @@
         <v>650</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3110,7 +3110,7 @@
         <v>678</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3118,7 +3118,7 @@
         <v>445</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3126,7 +3126,7 @@
         <v>367</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3134,7 +3134,7 @@
         <v>9</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3142,7 +3142,7 @@
         <v>654</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3150,7 +3150,7 @@
         <v>539</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3158,7 +3158,7 @@
         <v>739</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3166,7 +3166,7 @@
         <v>266</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3174,7 +3174,7 @@
         <v>458</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3182,7 +3182,7 @@
         <v>518</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -3190,7 +3190,7 @@
         <v>387</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -3198,7 +3198,7 @@
         <v>361</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -3206,7 +3206,7 @@
         <v>26</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -3214,7 +3214,7 @@
         <v>242</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -3222,7 +3222,7 @@
         <v>239</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -3230,7 +3230,7 @@
         <v>50</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -3238,7 +3238,7 @@
         <v>374</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -3246,7 +3246,7 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -3254,7 +3254,7 @@
         <v>712</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -3262,7 +3262,7 @@
         <v>342</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -3270,7 +3270,7 @@
         <v>171</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -3278,7 +3278,7 @@
         <v>521</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -3286,7 +3286,7 @@
         <v>163</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -3294,7 +3294,7 @@
         <v>360</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -3302,7 +3302,7 @@
         <v>175</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -3310,7 +3310,7 @@
         <v>409</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -3318,7 +3318,7 @@
         <v>117</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -3326,7 +3326,7 @@
         <v>627</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -3334,7 +3334,7 @@
         <v>517</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -3342,7 +3342,7 @@
         <v>601</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -3350,7 +3350,7 @@
         <v>493</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -3358,7 +3358,7 @@
         <v>135</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -3366,7 +3366,7 @@
         <v>181</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -3374,7 +3374,7 @@
         <v>322</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -3382,7 +3382,7 @@
         <v>93</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -3390,7 +3390,7 @@
         <v>707</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -3398,7 +3398,7 @@
         <v>323</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -3406,7 +3406,7 @@
         <v>471</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -3414,7 +3414,7 @@
         <v>401</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -3422,7 +3422,7 @@
         <v>537</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -3430,7 +3430,7 @@
         <v>737</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -3438,7 +3438,7 @@
         <v>685</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -3446,7 +3446,7 @@
         <v>454</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -3454,7 +3454,7 @@
         <v>380</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -3462,7 +3462,7 @@
         <v>46</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -3470,7 +3470,7 @@
         <v>716</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -3478,7 +3478,7 @@
         <v>147</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -3486,7 +3486,7 @@
         <v>583</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -3494,7 +3494,7 @@
         <v>142</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -3502,7 +3502,7 @@
         <v>481</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -3510,7 +3510,7 @@
         <v>689</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -3518,7 +3518,7 @@
         <v>435</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -3526,7 +3526,7 @@
         <v>649</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -3534,7 +3534,7 @@
         <v>503</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -3542,7 +3542,7 @@
         <v>363</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -3550,7 +3550,7 @@
         <v>17</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -3558,7 +3558,7 @@
         <v>182</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -3566,7 +3566,7 @@
         <v>732</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -3574,7 +3574,7 @@
         <v>777</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -3582,7 +3582,7 @@
         <v>615</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -3590,7 +3590,7 @@
         <v>194</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -3598,7 +3598,7 @@
         <v>358</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -3606,7 +3606,7 @@
         <v>313</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -3614,7 +3614,7 @@
         <v>510</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -3622,7 +3622,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -3630,7 +3630,7 @@
         <v>728</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -3638,7 +3638,7 @@
         <v>638</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -3646,7 +3646,7 @@
         <v>379</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -3654,7 +3654,7 @@
         <v>717</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -3662,7 +3662,7 @@
         <v>191</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -3670,7 +3670,7 @@
         <v>635</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -3678,7 +3678,7 @@
         <v>771</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -3686,7 +3686,7 @@
         <v>456</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -3694,7 +3694,7 @@
         <v>460</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -3702,7 +3702,7 @@
         <v>176</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -3710,7 +3710,7 @@
         <v>516</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -3718,7 +3718,7 @@
         <v>345</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -3726,7 +3726,7 @@
         <v>264</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -3734,7 +3734,7 @@
         <v>672</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -3742,7 +3742,7 @@
         <v>190</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -3750,7 +3750,7 @@
         <v>541</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -3758,7 +3758,7 @@
         <v>263</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -3766,7 +3766,7 @@
         <v>350</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -3774,7 +3774,7 @@
         <v>523</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -3782,7 +3782,7 @@
         <v>168</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -3790,7 +3790,7 @@
         <v>586</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -3798,7 +3798,7 @@
         <v>544</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -3806,7 +3806,7 @@
         <v>252</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -3814,7 +3814,7 @@
         <v>778</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -3822,7 +3822,7 @@
         <v>482</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -3830,7 +3830,7 @@
         <v>708</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -3838,7 +3838,7 @@
         <v>551</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -3846,7 +3846,7 @@
         <v>406</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -3854,7 +3854,7 @@
         <v>673</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -3862,7 +3862,7 @@
         <v>27</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -3870,7 +3870,7 @@
         <v>76</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -3878,7 +3878,7 @@
         <v>51</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -3886,7 +3886,7 @@
         <v>393</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -3894,7 +3894,7 @@
         <v>490</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -3902,7 +3902,7 @@
         <v>589</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -3910,7 +3910,7 @@
         <v>665</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -3918,7 +3918,7 @@
         <v>178</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -3926,7 +3926,7 @@
         <v>123</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -3934,7 +3934,7 @@
         <v>562</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -3942,7 +3942,7 @@
         <v>24</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -3950,7 +3950,7 @@
         <v>762</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -3958,7 +3958,7 @@
         <v>164</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -3966,7 +3966,7 @@
         <v>459</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -3974,7 +3974,7 @@
         <v>318</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -3982,7 +3982,7 @@
         <v>419</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -3990,7 +3990,7 @@
         <v>238</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -3998,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4006,7 +4006,7 @@
         <v>89</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4014,7 +4014,7 @@
         <v>600</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4022,7 +4022,7 @@
         <v>269</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4030,7 +4030,7 @@
         <v>658</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4038,7 +4038,7 @@
         <v>348</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4046,7 +4046,7 @@
         <v>174</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4054,7 +4054,7 @@
         <v>243</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4062,7 +4062,7 @@
         <v>183</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4070,7 +4070,7 @@
         <v>385</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4078,7 +4078,7 @@
         <v>30</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4086,7 +4086,7 @@
         <v>520</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4094,7 +4094,7 @@
         <v>513</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4102,7 +4102,7 @@
         <v>391</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4110,7 +4110,7 @@
         <v>331</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4118,7 +4118,7 @@
         <v>653</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4126,7 +4126,7 @@
         <v>114</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4134,7 +4134,7 @@
         <v>660</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4142,7 +4142,7 @@
         <v>55</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4150,7 +4150,7 @@
         <v>756</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4158,7 +4158,7 @@
         <v>690</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -4166,7 +4166,7 @@
         <v>398</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -4174,7 +4174,7 @@
         <v>236</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -4182,7 +4182,7 @@
         <v>681</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -4190,7 +4190,7 @@
         <v>301</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -4198,7 +4198,7 @@
         <v>415</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -4206,7 +4206,7 @@
         <v>299</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -4214,7 +4214,7 @@
         <v>644</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -4222,7 +4222,7 @@
         <v>31</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -4230,7 +4230,7 @@
         <v>573</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -4238,7 +4238,7 @@
         <v>384</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -4246,7 +4246,7 @@
         <v>105</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -4254,7 +4254,7 @@
         <v>396</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -4262,7 +4262,7 @@
         <v>100</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -4270,7 +4270,7 @@
         <v>718</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -4278,7 +4278,7 @@
         <v>477</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -4286,7 +4286,7 @@
         <v>764</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -4294,7 +4294,7 @@
         <v>501</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -4302,7 +4302,7 @@
         <v>584</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -4310,7 +4310,7 @@
         <v>158</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -4318,7 +4318,7 @@
         <v>565</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -4326,7 +4326,7 @@
         <v>90</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -4334,7 +4334,7 @@
         <v>417</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -4342,7 +4342,7 @@
         <v>223</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -4350,7 +4350,7 @@
         <v>470</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -4358,7 +4358,7 @@
         <v>755</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -4366,7 +4366,7 @@
         <v>414</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -4374,7 +4374,7 @@
         <v>22</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -4382,7 +4382,7 @@
         <v>141</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -4390,7 +4390,7 @@
         <v>127</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -4398,7 +4398,7 @@
         <v>215</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -4406,7 +4406,7 @@
         <v>610</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -4414,7 +4414,7 @@
         <v>515</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -4422,7 +4422,7 @@
         <v>170</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -4430,7 +4430,7 @@
         <v>162</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -4438,7 +4438,7 @@
         <v>616</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -4446,7 +4446,7 @@
         <v>587</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -4454,7 +4454,7 @@
         <v>395</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -4462,7 +4462,7 @@
         <v>491</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -4470,7 +4470,7 @@
         <v>370</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -4478,7 +4478,7 @@
         <v>418</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -4486,7 +4486,7 @@
         <v>119</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -4494,7 +4494,7 @@
         <v>528</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -4502,7 +4502,7 @@
         <v>368</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -4510,7 +4510,7 @@
         <v>632</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -4518,7 +4518,7 @@
         <v>577</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -4526,7 +4526,7 @@
         <v>453</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>529</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -4542,7 +4542,7 @@
         <v>682</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -4550,7 +4550,7 @@
         <v>277</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -4558,7 +4558,7 @@
         <v>249</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -4566,7 +4566,7 @@
         <v>18</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -4574,7 +4574,7 @@
         <v>571</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -4582,7 +4582,7 @@
         <v>429</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -4590,7 +4590,7 @@
         <v>196</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -4598,7 +4598,7 @@
         <v>634</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -4606,7 +4606,7 @@
         <v>759</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -4614,7 +4614,7 @@
         <v>473</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -4622,7 +4622,7 @@
         <v>71</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -4630,7 +4630,7 @@
         <v>321</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -4638,7 +4638,7 @@
         <v>603</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -4646,7 +4646,7 @@
         <v>48</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -4654,7 +4654,7 @@
         <v>614</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -4662,7 +4662,7 @@
         <v>416</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -4670,7 +4670,7 @@
         <v>72</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -4678,7 +4678,7 @@
         <v>698</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -4686,7 +4686,7 @@
         <v>479</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -4694,7 +4694,7 @@
         <v>353</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -4702,7 +4702,7 @@
         <v>43</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -4710,7 +4710,7 @@
         <v>359</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -4718,7 +4718,7 @@
         <v>750</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -4726,7 +4726,7 @@
         <v>209</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -4734,7 +4734,7 @@
         <v>646</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -4742,7 +4742,7 @@
         <v>574</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -4750,7 +4750,7 @@
         <v>625</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -4758,7 +4758,7 @@
         <v>111</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -4766,7 +4766,7 @@
         <v>623</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -4774,7 +4774,7 @@
         <v>5</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -4782,7 +4782,7 @@
         <v>377</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -4790,7 +4790,7 @@
         <v>675</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -4798,7 +4798,7 @@
         <v>522</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -4806,7 +4806,7 @@
         <v>203</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -4814,7 +4814,7 @@
         <v>94</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -4822,7 +4822,7 @@
         <v>108</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -4830,7 +4830,7 @@
         <v>711</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -4838,7 +4838,7 @@
         <v>467</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -4846,7 +4846,7 @@
         <v>12</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -4854,7 +4854,7 @@
         <v>452</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -4862,7 +4862,7 @@
         <v>198</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -4870,7 +4870,7 @@
         <v>439</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -4878,7 +4878,7 @@
         <v>113</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -4886,7 +4886,7 @@
         <v>669</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -4894,7 +4894,7 @@
         <v>8</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -4902,7 +4902,7 @@
         <v>256</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -4910,7 +4910,7 @@
         <v>365</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -4918,7 +4918,7 @@
         <v>494</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -4926,7 +4926,7 @@
         <v>591</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -4934,7 +4934,7 @@
         <v>292</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -4942,7 +4942,7 @@
         <v>169</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -4950,7 +4950,7 @@
         <v>212</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -4958,7 +4958,7 @@
         <v>87</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -4966,7 +4966,7 @@
         <v>440</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -4974,7 +4974,7 @@
         <v>536</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -4982,7 +4982,7 @@
         <v>595</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
         <v>160</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -4998,7 +4998,7 @@
         <v>659</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -5006,7 +5006,7 @@
         <v>763</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -5014,7 +5014,7 @@
         <v>648</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5022,7 +5022,7 @@
         <v>253</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -5030,7 +5030,7 @@
         <v>438</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -5038,7 +5038,7 @@
         <v>96</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -5046,7 +5046,7 @@
         <v>462</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -5054,7 +5054,7 @@
         <v>680</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -5062,7 +5062,7 @@
         <v>287</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -5070,7 +5070,7 @@
         <v>151</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5078,7 +5078,7 @@
         <v>686</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -5086,7 +5086,7 @@
         <v>738</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -5094,7 +5094,7 @@
         <v>248</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5102,7 +5102,7 @@
         <v>570</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5110,7 +5110,7 @@
         <v>701</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5118,7 +5118,7 @@
         <v>213</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -5126,7 +5126,7 @@
         <v>576</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -5134,7 +5134,7 @@
         <v>596</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5142,7 +5142,7 @@
         <v>44</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -5150,7 +5150,7 @@
         <v>106</v>
       </c>
       <c r="B302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -5158,7 +5158,7 @@
         <v>496</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -5166,7 +5166,7 @@
         <v>736</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -5174,7 +5174,7 @@
         <v>130</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -5182,7 +5182,7 @@
         <v>56</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -5190,7 +5190,7 @@
         <v>128</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -5198,7 +5198,7 @@
         <v>372</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -5206,7 +5206,7 @@
         <v>293</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -5214,7 +5214,7 @@
         <v>245</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -5222,7 +5222,7 @@
         <v>383</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -5230,7 +5230,7 @@
         <v>356</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -5238,7 +5238,7 @@
         <v>667</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -5246,7 +5246,7 @@
         <v>709</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -5254,7 +5254,7 @@
         <v>375</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -5262,7 +5262,7 @@
         <v>692</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -5270,7 +5270,7 @@
         <v>206</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -5278,7 +5278,7 @@
         <v>220</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -5286,7 +5286,7 @@
         <v>761</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -5294,7 +5294,7 @@
         <v>679</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -5302,7 +5302,7 @@
         <v>103</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -5310,7 +5310,7 @@
         <v>228</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -5318,7 +5318,7 @@
         <v>376</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -5326,7 +5326,7 @@
         <v>480</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -5334,7 +5334,7 @@
         <v>548</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -5342,7 +5342,7 @@
         <v>140</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -5350,7 +5350,7 @@
         <v>486</v>
       </c>
       <c r="B327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -5358,7 +5358,7 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -5366,7 +5366,7 @@
         <v>700</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -5374,7 +5374,7 @@
         <v>774</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -5382,7 +5382,7 @@
         <v>757</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -5390,7 +5390,7 @@
         <v>304</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -5398,7 +5398,7 @@
         <v>608</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -5406,7 +5406,7 @@
         <v>776</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -5414,7 +5414,7 @@
         <v>500</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -5422,7 +5422,7 @@
         <v>677</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -5430,7 +5430,7 @@
         <v>14</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -5438,7 +5438,7 @@
         <v>53</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -5446,7 +5446,7 @@
         <v>569</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -5454,7 +5454,7 @@
         <v>724</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -5462,7 +5462,7 @@
         <v>442</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -5470,7 +5470,7 @@
         <v>74</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -5478,7 +5478,7 @@
         <v>599</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -5486,7 +5486,7 @@
         <v>597</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -5494,7 +5494,7 @@
         <v>32</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -5502,7 +5502,7 @@
         <v>154</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -5510,7 +5510,7 @@
         <v>288</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -5518,7 +5518,7 @@
         <v>588</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -5526,7 +5526,7 @@
         <v>557</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -5534,7 +5534,7 @@
         <v>75</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -5542,7 +5542,7 @@
         <v>172</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -5550,7 +5550,7 @@
         <v>188</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -5558,7 +5558,7 @@
         <v>498</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -5566,7 +5566,7 @@
         <v>519</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -5574,7 +5574,7 @@
         <v>512</v>
       </c>
       <c r="B355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -5582,7 +5582,7 @@
         <v>282</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -5590,7 +5590,7 @@
         <v>315</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -5598,7 +5598,7 @@
         <v>274</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -5606,7 +5606,7 @@
         <v>702</v>
       </c>
       <c r="B359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -5614,7 +5614,7 @@
         <v>137</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -5622,7 +5622,7 @@
         <v>324</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -5630,7 +5630,7 @@
         <v>39</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -5638,7 +5638,7 @@
         <v>385</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -5646,7 +5646,7 @@
         <v>723</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -5654,7 +5654,7 @@
         <v>594</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -5662,7 +5662,7 @@
         <v>241</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -5670,7 +5670,7 @@
         <v>311</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -5678,7 +5678,7 @@
         <v>10</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -5686,7 +5686,7 @@
         <v>297</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -5694,7 +5694,7 @@
         <v>148</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -5702,7 +5702,7 @@
         <v>758</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -5710,7 +5710,7 @@
         <v>593</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -5718,7 +5718,7 @@
         <v>766</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -5726,7 +5726,7 @@
         <v>19</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -5734,7 +5734,7 @@
         <v>69</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -5742,7 +5742,7 @@
         <v>244</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -5750,7 +5750,7 @@
         <v>20</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -5758,7 +5758,7 @@
         <v>326</v>
       </c>
       <c r="B378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -5766,7 +5766,7 @@
         <v>279</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -5774,7 +5774,7 @@
         <v>446</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -5782,7 +5782,7 @@
         <v>192</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -5790,7 +5790,7 @@
         <v>645</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -5798,7 +5798,7 @@
         <v>211</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -5806,7 +5806,7 @@
         <v>752</v>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -5814,7 +5814,7 @@
         <v>535</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -5822,7 +5822,7 @@
         <v>566</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -5830,7 +5830,7 @@
         <v>411</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -5838,7 +5838,7 @@
         <v>150</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -5846,7 +5846,7 @@
         <v>560</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -5854,7 +5854,7 @@
         <v>451</v>
       </c>
       <c r="B390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -5862,7 +5862,7 @@
         <v>449</v>
       </c>
       <c r="B391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -5870,7 +5870,7 @@
         <v>312</v>
       </c>
       <c r="B392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -5878,7 +5878,7 @@
         <v>410</v>
       </c>
       <c r="B393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -5886,7 +5886,7 @@
         <v>502</v>
       </c>
       <c r="B394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -5894,7 +5894,7 @@
         <v>339</v>
       </c>
       <c r="B395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -5902,7 +5902,7 @@
         <v>404</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -5910,7 +5910,7 @@
         <v>261</v>
       </c>
       <c r="B397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -5918,7 +5918,7 @@
         <v>447</v>
       </c>
       <c r="B398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -5926,7 +5926,7 @@
         <v>699</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -5934,7 +5934,7 @@
         <v>15</v>
       </c>
       <c r="B400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -5942,7 +5942,7 @@
         <v>742</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -5950,7 +5950,7 @@
         <v>54</v>
       </c>
       <c r="B402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -5958,7 +5958,7 @@
         <v>611</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -5966,7 +5966,7 @@
         <v>455</v>
       </c>
       <c r="B404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -5974,7 +5974,7 @@
         <v>144</v>
       </c>
       <c r="B405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -5982,7 +5982,7 @@
         <v>109</v>
       </c>
       <c r="B406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -5990,7 +5990,7 @@
         <v>268</v>
       </c>
       <c r="B407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -5998,7 +5998,7 @@
         <v>504</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6006,7 +6006,7 @@
         <v>7</v>
       </c>
       <c r="B409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -6014,7 +6014,7 @@
         <v>260</v>
       </c>
       <c r="B410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6022,7 +6022,7 @@
         <v>152</v>
       </c>
       <c r="B411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -6030,7 +6030,7 @@
         <v>193</v>
       </c>
       <c r="B412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -6038,7 +6038,7 @@
         <v>250</v>
       </c>
       <c r="B413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -6046,7 +6046,7 @@
         <v>134</v>
       </c>
       <c r="B414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -6054,7 +6054,7 @@
         <v>121</v>
       </c>
       <c r="B415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -6062,7 +6062,7 @@
         <v>216</v>
       </c>
       <c r="B416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -6070,7 +6070,7 @@
         <v>668</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -6078,7 +6078,7 @@
         <v>670</v>
       </c>
       <c r="B418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -6086,7 +6086,7 @@
         <v>427</v>
       </c>
       <c r="B419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -6094,7 +6094,7 @@
         <v>33</v>
       </c>
       <c r="B420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -6102,7 +6102,7 @@
         <v>754</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -6110,7 +6110,7 @@
         <v>6</v>
       </c>
       <c r="B422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -6118,7 +6118,7 @@
         <v>70</v>
       </c>
       <c r="B423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -6126,7 +6126,7 @@
         <v>257</v>
       </c>
       <c r="B424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -6134,7 +6134,7 @@
         <v>432</v>
       </c>
       <c r="B425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -6142,7 +6142,7 @@
         <v>91</v>
       </c>
       <c r="B426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -6150,7 +6150,7 @@
         <v>598</v>
       </c>
       <c r="B427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -6158,7 +6158,7 @@
         <v>340</v>
       </c>
       <c r="B428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -6166,7 +6166,7 @@
         <v>746</v>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -6174,7 +6174,7 @@
         <v>582</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -6182,7 +6182,7 @@
         <v>306</v>
       </c>
       <c r="B431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -6190,7 +6190,7 @@
         <v>592</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -6198,7 +6198,7 @@
         <v>555</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -6206,7 +6206,7 @@
         <v>218</v>
       </c>
       <c r="B434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -6214,7 +6214,7 @@
         <v>337</v>
       </c>
       <c r="B435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -6222,7 +6222,7 @@
         <v>132</v>
       </c>
       <c r="B436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -6230,7 +6230,7 @@
         <v>251</v>
       </c>
       <c r="B437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -6238,7 +6238,7 @@
         <v>280</v>
       </c>
       <c r="B438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -6246,7 +6246,7 @@
         <v>696</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -6254,7 +6254,7 @@
         <v>66</v>
       </c>
       <c r="B440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -6262,7 +6262,7 @@
         <v>357</v>
       </c>
       <c r="B441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -6270,7 +6270,7 @@
         <v>543</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -6278,7 +6278,7 @@
         <v>186</v>
       </c>
       <c r="B443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -6286,7 +6286,7 @@
         <v>240</v>
       </c>
       <c r="B444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -6294,7 +6294,7 @@
         <v>652</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -6302,7 +6302,7 @@
         <v>463</v>
       </c>
       <c r="B446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -6310,7 +6310,7 @@
         <v>437</v>
       </c>
       <c r="B447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -6318,7 +6318,7 @@
         <v>334</v>
       </c>
       <c r="B448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -6326,7 +6326,7 @@
         <v>567</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -6334,7 +6334,7 @@
         <v>580</v>
       </c>
       <c r="B450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -6342,7 +6342,7 @@
         <v>166</v>
       </c>
       <c r="B451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -6350,7 +6350,7 @@
         <v>412</v>
       </c>
       <c r="B452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -6358,7 +6358,7 @@
         <v>341</v>
       </c>
       <c r="B453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -6366,7 +6366,7 @@
         <v>275</v>
       </c>
       <c r="B454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -6374,7 +6374,7 @@
         <v>68</v>
       </c>
       <c r="B455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -6382,7 +6382,7 @@
         <v>612</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -6390,7 +6390,7 @@
         <v>307</v>
       </c>
       <c r="B457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -6398,7 +6398,7 @@
         <v>122</v>
       </c>
       <c r="B458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -6406,7 +6406,7 @@
         <v>628</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -6414,7 +6414,7 @@
         <v>753</v>
       </c>
       <c r="B460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -6422,7 +6422,7 @@
         <v>575</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -6430,7 +6430,7 @@
         <v>355</v>
       </c>
       <c r="B462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -6438,7 +6438,7 @@
         <v>618</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -6446,7 +6446,7 @@
         <v>35</v>
       </c>
       <c r="B464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -6454,7 +6454,7 @@
         <v>421</v>
       </c>
       <c r="B465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -6462,7 +6462,7 @@
         <v>118</v>
       </c>
       <c r="B466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -6470,7 +6470,7 @@
         <v>434</v>
       </c>
       <c r="B467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -6478,7 +6478,7 @@
         <v>37</v>
       </c>
       <c r="B468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -6486,7 +6486,7 @@
         <v>336</v>
       </c>
       <c r="B469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -6494,7 +6494,7 @@
         <v>82</v>
       </c>
       <c r="B470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -6502,7 +6502,7 @@
         <v>313</v>
       </c>
       <c r="B471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -6510,7 +6510,7 @@
         <v>58</v>
       </c>
       <c r="B472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -6518,7 +6518,7 @@
         <v>143</v>
       </c>
       <c r="B473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -6526,7 +6526,7 @@
         <v>373</v>
       </c>
       <c r="B474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -6534,7 +6534,7 @@
         <v>769</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -6542,7 +6542,7 @@
         <v>16</v>
       </c>
       <c r="B476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -6550,7 +6550,7 @@
         <v>296</v>
       </c>
       <c r="B477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -6558,7 +6558,7 @@
         <v>259</v>
       </c>
       <c r="B478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -6566,7 +6566,7 @@
         <v>85</v>
       </c>
       <c r="B479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -6574,7 +6574,7 @@
         <v>371</v>
       </c>
       <c r="B480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -6582,7 +6582,7 @@
         <v>674</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -6590,7 +6590,7 @@
         <v>185</v>
       </c>
       <c r="B482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -6598,7 +6598,7 @@
         <v>505</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
@@ -6606,7 +6606,7 @@
         <v>112</v>
       </c>
       <c r="B484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -6614,7 +6614,7 @@
         <v>563</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -6622,7 +6622,7 @@
         <v>202</v>
       </c>
       <c r="B486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -6630,7 +6630,7 @@
         <v>538</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -6638,7 +6638,7 @@
         <v>733</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -6646,7 +6646,7 @@
         <v>527</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -6654,7 +6654,7 @@
         <v>64</v>
       </c>
       <c r="B490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -6662,7 +6662,7 @@
         <v>768</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -6670,7 +6670,7 @@
         <v>487</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -6678,7 +6678,7 @@
         <v>747</v>
       </c>
       <c r="B493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -6686,7 +6686,7 @@
         <v>83</v>
       </c>
       <c r="B494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -6694,7 +6694,7 @@
         <v>585</v>
       </c>
       <c r="B495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -6702,7 +6702,7 @@
         <v>327</v>
       </c>
       <c r="B496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -6710,7 +6710,7 @@
         <v>200</v>
       </c>
       <c r="B497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -6718,7 +6718,7 @@
         <v>317</v>
       </c>
       <c r="B498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -6726,7 +6726,7 @@
         <v>389</v>
       </c>
       <c r="B499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -6734,7 +6734,7 @@
         <v>531</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -6742,7 +6742,7 @@
         <v>765</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -6750,7 +6750,7 @@
         <v>247</v>
       </c>
       <c r="B502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -6758,7 +6758,7 @@
         <v>468</v>
       </c>
       <c r="B503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -6766,7 +6766,7 @@
         <v>590</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -6774,7 +6774,7 @@
         <v>246</v>
       </c>
       <c r="B505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -6782,7 +6782,7 @@
         <v>319</v>
       </c>
       <c r="B506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -6790,7 +6790,7 @@
         <v>425</v>
       </c>
       <c r="B507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -6798,7 +6798,7 @@
         <v>364</v>
       </c>
       <c r="B508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -6806,7 +6806,7 @@
         <v>550</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -6814,7 +6814,7 @@
         <v>640</v>
       </c>
       <c r="B510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -6822,7 +6822,7 @@
         <v>637</v>
       </c>
       <c r="B511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -6830,7 +6830,7 @@
         <v>222</v>
       </c>
       <c r="B512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -6838,7 +6838,7 @@
         <v>485</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -6846,7 +6846,7 @@
         <v>633</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -6854,7 +6854,7 @@
         <v>651</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -6862,7 +6862,7 @@
         <v>291</v>
       </c>
       <c r="B516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -6870,7 +6870,7 @@
         <v>346</v>
       </c>
       <c r="B517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -6878,7 +6878,7 @@
         <v>138</v>
       </c>
       <c r="B518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -6886,7 +6886,7 @@
         <v>466</v>
       </c>
       <c r="B519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
@@ -6894,7 +6894,7 @@
         <v>693</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
@@ -6902,7 +6902,7 @@
         <v>542</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
@@ -6910,7 +6910,7 @@
         <v>189</v>
       </c>
       <c r="B522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
@@ -6918,7 +6918,7 @@
         <v>568</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
@@ -6926,7 +6926,7 @@
         <v>139</v>
       </c>
       <c r="B524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
@@ -6934,7 +6934,7 @@
         <v>289</v>
       </c>
       <c r="B525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
@@ -6942,7 +6942,7 @@
         <v>455</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
@@ -6950,7 +6950,7 @@
         <v>205</v>
       </c>
       <c r="B527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
@@ -6958,7 +6958,7 @@
         <v>281</v>
       </c>
       <c r="B528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
@@ -6966,7 +6966,7 @@
         <v>706</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
@@ -6974,7 +6974,7 @@
         <v>688</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
@@ -6982,7 +6982,7 @@
         <v>46</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
@@ -6990,7 +6990,7 @@
         <v>727</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
@@ -6998,7 +6998,7 @@
         <v>63</v>
       </c>
       <c r="B533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
@@ -7006,7 +7006,7 @@
         <v>426</v>
       </c>
       <c r="B534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
@@ -7014,7 +7014,7 @@
         <v>636</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
@@ -7022,7 +7022,7 @@
         <v>347</v>
       </c>
       <c r="B536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
@@ -7030,7 +7030,7 @@
         <v>270</v>
       </c>
       <c r="B537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
@@ -7038,7 +7038,7 @@
         <v>613</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
@@ -7046,7 +7046,7 @@
         <v>230</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
@@ -7054,7 +7054,7 @@
         <v>602</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
@@ -7062,7 +7062,7 @@
         <v>476</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
@@ -7070,7 +7070,7 @@
         <v>420</v>
       </c>
       <c r="B542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
@@ -7078,7 +7078,7 @@
         <v>395</v>
       </c>
       <c r="B543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
@@ -7086,7 +7086,7 @@
         <v>436</v>
       </c>
       <c r="B544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
@@ -7094,7 +7094,7 @@
         <v>120</v>
       </c>
       <c r="B545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
@@ -7102,7 +7102,7 @@
         <v>62</v>
       </c>
       <c r="B546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
@@ -7110,7 +7110,7 @@
         <v>352</v>
       </c>
       <c r="B547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
@@ -7118,7 +7118,7 @@
         <v>641</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
@@ -7126,7 +7126,7 @@
         <v>676</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
@@ -7134,7 +7134,7 @@
         <v>284</v>
       </c>
       <c r="B550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
@@ -7142,7 +7142,7 @@
         <v>80</v>
       </c>
       <c r="B551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
@@ -7150,7 +7150,7 @@
         <v>180</v>
       </c>
       <c r="B552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
@@ -7158,7 +7158,7 @@
         <v>157</v>
       </c>
       <c r="B553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
@@ -7166,7 +7166,7 @@
         <v>662</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
@@ -7174,7 +7174,7 @@
         <v>214</v>
       </c>
       <c r="B555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
@@ -7182,7 +7182,7 @@
         <v>431</v>
       </c>
       <c r="B556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
@@ -7190,7 +7190,7 @@
         <v>720</v>
       </c>
       <c r="B557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
@@ -7198,7 +7198,7 @@
         <v>233</v>
       </c>
       <c r="B558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
@@ -7206,7 +7206,7 @@
         <v>378</v>
       </c>
       <c r="B559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
@@ -7214,7 +7214,7 @@
         <v>290</v>
       </c>
       <c r="B560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
@@ -7222,7 +7222,7 @@
         <v>475</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
@@ -7230,7 +7230,7 @@
         <v>514</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
@@ -7238,7 +7238,7 @@
         <v>309</v>
       </c>
       <c r="B563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
@@ -7246,7 +7246,7 @@
         <v>726</v>
       </c>
       <c r="B564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
@@ -7254,7 +7254,7 @@
         <v>488</v>
       </c>
       <c r="B565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
@@ -7262,7 +7262,7 @@
         <v>553</v>
       </c>
       <c r="B566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
@@ -7270,7 +7270,7 @@
         <v>444</v>
       </c>
       <c r="B567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
@@ -7278,7 +7278,7 @@
         <v>630</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
@@ -7286,7 +7286,7 @@
         <v>483</v>
       </c>
       <c r="B569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
@@ -7294,7 +7294,7 @@
         <v>230</v>
       </c>
       <c r="B570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
@@ -7302,7 +7302,7 @@
         <v>207</v>
       </c>
       <c r="B571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
@@ -7310,7 +7310,7 @@
         <v>86</v>
       </c>
       <c r="B572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
@@ -7318,7 +7318,7 @@
         <v>298</v>
       </c>
       <c r="B573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
@@ -7326,7 +7326,7 @@
         <v>366</v>
       </c>
       <c r="B574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
@@ -7334,7 +7334,7 @@
         <v>102</v>
       </c>
       <c r="B575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
@@ -7342,7 +7342,7 @@
         <v>286</v>
       </c>
       <c r="B576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
@@ -7350,7 +7350,7 @@
         <v>25</v>
       </c>
       <c r="B577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
@@ -7358,7 +7358,7 @@
         <v>744</v>
       </c>
       <c r="B578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
@@ -7366,7 +7366,7 @@
         <v>129</v>
       </c>
       <c r="B579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
@@ -7374,7 +7374,7 @@
         <v>767</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
@@ -7382,7 +7382,7 @@
         <v>620</v>
       </c>
       <c r="B581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
@@ -7390,7 +7390,7 @@
         <v>397</v>
       </c>
       <c r="B582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
@@ -7398,7 +7398,7 @@
         <v>684</v>
       </c>
       <c r="B583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
@@ -7406,7 +7406,7 @@
         <v>235</v>
       </c>
       <c r="B584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
@@ -7414,7 +7414,7 @@
         <v>262</v>
       </c>
       <c r="B585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
@@ -7422,7 +7422,7 @@
         <v>578</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
@@ -7430,7 +7430,7 @@
         <v>549</v>
       </c>
       <c r="B587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
@@ -7438,7 +7438,7 @@
         <v>335</v>
       </c>
       <c r="B588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
@@ -7446,7 +7446,7 @@
         <v>65</v>
       </c>
       <c r="B589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
@@ -7454,7 +7454,7 @@
         <v>104</v>
       </c>
       <c r="B590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
@@ -7462,7 +7462,7 @@
         <v>579</v>
       </c>
       <c r="B591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
@@ -7470,7 +7470,7 @@
         <v>99</v>
       </c>
       <c r="B592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
@@ -7478,7 +7478,7 @@
         <v>664</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
@@ -7486,7 +7486,7 @@
         <v>508</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
@@ -7494,7 +7494,7 @@
         <v>187</v>
       </c>
       <c r="B595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
@@ -7502,7 +7502,7 @@
         <v>624</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
@@ -7510,7 +7510,7 @@
         <v>254</v>
       </c>
       <c r="B597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
@@ -7518,7 +7518,7 @@
         <v>403</v>
       </c>
       <c r="B598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
@@ -7526,7 +7526,7 @@
         <v>695</v>
       </c>
       <c r="B599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
@@ -7534,7 +7534,7 @@
         <v>283</v>
       </c>
       <c r="B600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
@@ -7542,7 +7542,7 @@
         <v>497</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
@@ -7550,7 +7550,7 @@
         <v>540</v>
       </c>
       <c r="B602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
@@ -7558,7 +7558,7 @@
         <v>255</v>
       </c>
       <c r="B603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
@@ -7566,7 +7566,7 @@
         <v>246</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
@@ -7574,7 +7574,7 @@
         <v>362</v>
       </c>
       <c r="B605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
@@ -7582,7 +7582,7 @@
         <v>42</v>
       </c>
       <c r="B606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
@@ -7590,7 +7590,7 @@
         <v>13</v>
       </c>
       <c r="B607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
@@ -7598,7 +7598,7 @@
         <v>469</v>
       </c>
       <c r="B608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
@@ -7606,7 +7606,7 @@
         <v>272</v>
       </c>
       <c r="B609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
@@ -7614,7 +7614,7 @@
         <v>533</v>
       </c>
       <c r="B610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
@@ -7622,7 +7622,7 @@
         <v>78</v>
       </c>
       <c r="B611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
@@ -7630,7 +7630,7 @@
         <v>772</v>
       </c>
       <c r="B612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
@@ -7638,7 +7638,7 @@
         <v>561</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
@@ -7646,7 +7646,7 @@
         <v>552</v>
       </c>
       <c r="B614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
@@ -7654,7 +7654,7 @@
         <v>330</v>
       </c>
       <c r="B615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
@@ -7662,7 +7662,7 @@
         <v>743</v>
       </c>
       <c r="B616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
@@ -7670,7 +7670,7 @@
         <v>694</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
@@ -7678,7 +7678,7 @@
         <v>647</v>
       </c>
       <c r="B618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
@@ -7686,7 +7686,7 @@
         <v>740</v>
       </c>
       <c r="B619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
@@ -7694,7 +7694,7 @@
         <v>407</v>
       </c>
       <c r="B620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
@@ -7702,7 +7702,7 @@
         <v>267</v>
       </c>
       <c r="B621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
@@ -7710,7 +7710,7 @@
         <v>713</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
@@ -7718,7 +7718,7 @@
         <v>41</v>
       </c>
       <c r="B623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
@@ -7726,7 +7726,7 @@
         <v>258</v>
       </c>
       <c r="B624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
@@ -7734,7 +7734,7 @@
         <v>715</v>
       </c>
       <c r="B625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
@@ -7742,7 +7742,7 @@
         <v>116</v>
       </c>
       <c r="B626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
@@ -7750,7 +7750,7 @@
         <v>98</v>
       </c>
       <c r="B627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
@@ -7758,7 +7758,7 @@
         <v>735</v>
       </c>
       <c r="B628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
@@ -7766,7 +7766,7 @@
         <v>655</v>
       </c>
       <c r="B629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
@@ -7774,7 +7774,7 @@
         <v>683</v>
       </c>
       <c r="B630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
@@ -7782,7 +7782,7 @@
         <v>666</v>
       </c>
       <c r="B631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
@@ -7790,7 +7790,7 @@
         <v>424</v>
       </c>
       <c r="B632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
@@ -7798,7 +7798,7 @@
         <v>775</v>
       </c>
       <c r="B633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
@@ -7806,7 +7806,7 @@
         <v>36</v>
       </c>
       <c r="B634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
@@ -7814,7 +7814,7 @@
         <v>169</v>
       </c>
       <c r="B635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
@@ -7822,7 +7822,7 @@
         <v>382</v>
       </c>
       <c r="B636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
@@ -7830,7 +7830,7 @@
         <v>745</v>
       </c>
       <c r="B637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
@@ -7838,7 +7838,7 @@
         <v>430</v>
       </c>
       <c r="B638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
@@ -7846,7 +7846,7 @@
         <v>390</v>
       </c>
       <c r="B639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
@@ -7854,7 +7854,7 @@
         <v>343</v>
       </c>
       <c r="B640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
@@ -7862,7 +7862,7 @@
         <v>229</v>
       </c>
       <c r="B641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
@@ -7870,7 +7870,7 @@
         <v>156</v>
       </c>
       <c r="B642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
@@ -7878,7 +7878,7 @@
         <v>617</v>
       </c>
       <c r="B643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
@@ -7886,7 +7886,7 @@
         <v>49</v>
       </c>
       <c r="B644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
@@ -7894,7 +7894,7 @@
         <v>92</v>
       </c>
       <c r="B645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
@@ -7902,7 +7902,7 @@
         <v>402</v>
       </c>
       <c r="B646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
@@ -7910,7 +7910,7 @@
         <v>195</v>
       </c>
       <c r="B647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
@@ -7918,7 +7918,7 @@
         <v>400</v>
       </c>
       <c r="B648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
@@ -7926,7 +7926,7 @@
         <v>609</v>
       </c>
       <c r="B649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
@@ -7934,7 +7934,7 @@
         <v>316</v>
       </c>
       <c r="B650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
@@ -7942,7 +7942,7 @@
         <v>506</v>
       </c>
       <c r="B651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
@@ -7950,7 +7950,7 @@
         <v>619</v>
       </c>
       <c r="B652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
@@ -7958,7 +7958,7 @@
         <v>210</v>
       </c>
       <c r="B653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
@@ -7966,7 +7966,7 @@
         <v>661</v>
       </c>
       <c r="B654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -7974,7 +7974,7 @@
         <v>656</v>
       </c>
       <c r="B655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
@@ -7982,7 +7982,7 @@
         <v>546</v>
       </c>
       <c r="B656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
@@ -7990,7 +7990,7 @@
         <v>558</v>
       </c>
       <c r="B657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="B658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
@@ -8006,7 +8006,7 @@
         <v>526</v>
       </c>
       <c r="B659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
@@ -8014,7 +8014,7 @@
         <v>760</v>
       </c>
       <c r="B660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
@@ -8022,7 +8022,7 @@
         <v>441</v>
       </c>
       <c r="B661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
@@ -8030,7 +8030,7 @@
         <v>657</v>
       </c>
       <c r="B662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
@@ -8038,7 +8038,7 @@
         <v>221</v>
       </c>
       <c r="B663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
@@ -8046,7 +8046,7 @@
         <v>34</v>
       </c>
       <c r="B664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
@@ -8054,7 +8054,7 @@
         <v>126</v>
       </c>
       <c r="B665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
@@ -8062,7 +8062,7 @@
         <v>47</v>
       </c>
       <c r="B666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
@@ -8070,7 +8070,7 @@
         <v>511</v>
       </c>
       <c r="B667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
@@ -8078,7 +8078,7 @@
         <v>525</v>
       </c>
       <c r="B668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
@@ -8086,7 +8086,7 @@
         <v>273</v>
       </c>
       <c r="B669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
@@ -8094,7 +8094,7 @@
         <v>572</v>
       </c>
       <c r="B670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
@@ -8102,7 +8102,7 @@
         <v>474</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
@@ -8110,7 +8110,7 @@
         <v>199</v>
       </c>
       <c r="B672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
@@ -8118,7 +8118,7 @@
         <v>381</v>
       </c>
       <c r="B673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
@@ -8126,7 +8126,7 @@
         <v>265</v>
       </c>
       <c r="B674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
@@ -8134,7 +8134,7 @@
         <v>639</v>
       </c>
       <c r="B675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
@@ -8142,7 +8142,7 @@
         <v>95</v>
       </c>
       <c r="B676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
@@ -8150,7 +8150,7 @@
         <v>369</v>
       </c>
       <c r="B677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
@@ -8158,7 +8158,7 @@
         <v>433</v>
       </c>
       <c r="B678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
@@ -8166,7 +8166,7 @@
         <v>28</v>
       </c>
       <c r="B679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
@@ -8174,7 +8174,7 @@
         <v>208</v>
       </c>
       <c r="B680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
@@ -8182,7 +8182,7 @@
         <v>556</v>
       </c>
       <c r="B681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
@@ -8190,7 +8190,7 @@
         <v>729</v>
       </c>
       <c r="B682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
@@ -8198,7 +8198,7 @@
         <v>271</v>
       </c>
       <c r="B683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
@@ -8206,7 +8206,7 @@
         <v>472</v>
       </c>
       <c r="B684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
@@ -8214,7 +8214,7 @@
         <v>607</v>
       </c>
       <c r="B685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
@@ -8222,7 +8222,7 @@
         <v>489</v>
       </c>
       <c r="B686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
@@ -8230,7 +8230,7 @@
         <v>423</v>
       </c>
       <c r="B687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
@@ -8238,7 +8238,7 @@
         <v>201</v>
       </c>
       <c r="B688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
@@ -8246,7 +8246,7 @@
         <v>155</v>
       </c>
       <c r="B689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
@@ -8254,7 +8254,7 @@
         <v>495</v>
       </c>
       <c r="B690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
@@ -8262,7 +8262,7 @@
         <v>338</v>
       </c>
       <c r="B691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
@@ -8270,7 +8270,7 @@
         <v>722</v>
       </c>
       <c r="B692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
@@ -8278,7 +8278,7 @@
         <v>631</v>
       </c>
       <c r="B693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
@@ -8286,7 +8286,7 @@
         <v>564</v>
       </c>
       <c r="B694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
@@ -8294,7 +8294,7 @@
         <v>61</v>
       </c>
       <c r="B695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
@@ -8302,7 +8302,7 @@
         <v>478</v>
       </c>
       <c r="B696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
@@ -8310,7 +8310,7 @@
         <v>443</v>
       </c>
       <c r="B697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
@@ -8318,7 +8318,7 @@
         <v>204</v>
       </c>
       <c r="B698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
@@ -8326,7 +8326,7 @@
         <v>710</v>
       </c>
       <c r="B699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
@@ -8334,7 +8334,7 @@
         <v>532</v>
       </c>
       <c r="B700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
@@ -8342,7 +8342,7 @@
         <v>606</v>
       </c>
       <c r="B701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
@@ -8350,7 +8350,7 @@
         <v>734</v>
       </c>
       <c r="B702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
@@ -8358,7 +8358,7 @@
         <v>461</v>
       </c>
       <c r="B703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
@@ -8366,7 +8366,7 @@
         <v>237</v>
       </c>
       <c r="B704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
@@ -8374,7 +8374,7 @@
         <v>278</v>
       </c>
       <c r="B705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
@@ -8382,7 +8382,7 @@
         <v>499</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
@@ -8390,7 +8390,7 @@
         <v>725</v>
       </c>
       <c r="B707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
@@ -8398,7 +8398,7 @@
         <v>524</v>
       </c>
       <c r="B708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
@@ -8406,7 +8406,7 @@
         <v>165</v>
       </c>
       <c r="B709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
@@ -8414,7 +8414,7 @@
         <v>294</v>
       </c>
       <c r="B710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
@@ -8422,7 +8422,7 @@
         <v>349</v>
       </c>
       <c r="B711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
@@ -8430,7 +8430,7 @@
         <v>344</v>
       </c>
       <c r="B712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
@@ -8438,7 +8438,7 @@
         <v>450</v>
       </c>
       <c r="B713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
@@ -8446,7 +8446,7 @@
         <v>554</v>
       </c>
       <c r="B714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
@@ -8454,7 +8454,7 @@
         <v>303</v>
       </c>
       <c r="B715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
@@ -8462,7 +8462,7 @@
         <v>149</v>
       </c>
       <c r="B716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
@@ -8470,7 +8470,7 @@
         <v>227</v>
       </c>
       <c r="B717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
@@ -8478,7 +8478,7 @@
         <v>465</v>
       </c>
       <c r="B718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
@@ -8486,7 +8486,7 @@
         <v>40</v>
       </c>
       <c r="B719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
@@ -8494,7 +8494,7 @@
         <v>310</v>
       </c>
       <c r="B720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
@@ -8502,7 +8502,7 @@
         <v>202</v>
       </c>
       <c r="B721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
@@ -8510,7 +8510,7 @@
         <v>332</v>
       </c>
       <c r="B722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
@@ -8518,7 +8518,7 @@
         <v>492</v>
       </c>
       <c r="B723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
@@ -8526,7 +8526,7 @@
         <v>408</v>
       </c>
       <c r="B724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
@@ -8534,7 +8534,7 @@
         <v>276</v>
       </c>
       <c r="B725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
@@ -8542,7 +8542,7 @@
         <v>1</v>
       </c>
       <c r="B726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
@@ -8550,7 +8550,7 @@
         <v>731</v>
       </c>
       <c r="B727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
@@ -8558,7 +8558,7 @@
         <v>97</v>
       </c>
       <c r="B728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
@@ -8566,7 +8566,7 @@
         <v>386</v>
       </c>
       <c r="B729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
@@ -8574,7 +8574,7 @@
         <v>29</v>
       </c>
       <c r="B730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
@@ -8582,7 +8582,7 @@
         <v>4</v>
       </c>
       <c r="B731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
@@ -8590,7 +8590,7 @@
         <v>197</v>
       </c>
       <c r="B732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
@@ -8598,7 +8598,7 @@
         <v>2</v>
       </c>
       <c r="B733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
@@ -8606,7 +8606,7 @@
         <v>509</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
@@ -8614,7 +8614,7 @@
         <v>457</v>
       </c>
       <c r="B735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
@@ -8622,7 +8622,7 @@
         <v>302</v>
       </c>
       <c r="B736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
@@ -8630,7 +8630,7 @@
         <v>45</v>
       </c>
       <c r="B737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
         <v>697</v>
       </c>
       <c r="B738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
@@ -8646,7 +8646,7 @@
         <v>179</v>
       </c>
       <c r="B739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
@@ -8654,7 +8654,7 @@
         <v>464</v>
       </c>
       <c r="B740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
@@ -8662,7 +8662,7 @@
         <v>626</v>
       </c>
       <c r="B741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
@@ -8670,7 +8670,7 @@
         <v>136</v>
       </c>
       <c r="B742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
@@ -8678,7 +8678,7 @@
         <v>545</v>
       </c>
       <c r="B743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
@@ -8686,7 +8686,7 @@
         <v>79</v>
       </c>
       <c r="B744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
@@ -8694,7 +8694,7 @@
         <v>413</v>
       </c>
       <c r="B745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
@@ -8702,7 +8702,7 @@
         <v>314</v>
       </c>
       <c r="B746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
@@ -8710,7 +8710,7 @@
         <v>547</v>
       </c>
       <c r="B747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
@@ -8718,7 +8718,7 @@
         <v>394</v>
       </c>
       <c r="B748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
@@ -8726,7 +8726,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
@@ -8734,7 +8734,7 @@
         <v>621</v>
       </c>
       <c r="B750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
@@ -8742,7 +8742,7 @@
         <v>308</v>
       </c>
       <c r="B751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
@@ -8750,7 +8750,7 @@
         <v>770</v>
       </c>
       <c r="B752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
@@ -8758,7 +8758,7 @@
         <v>161</v>
       </c>
       <c r="B753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
@@ -8766,7 +8766,7 @@
         <v>622</v>
       </c>
       <c r="B754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
@@ -8774,7 +8774,7 @@
         <v>300</v>
       </c>
       <c r="B755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
@@ -8782,7 +8782,7 @@
         <v>773</v>
       </c>
       <c r="B756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
@@ -8790,7 +8790,7 @@
         <v>484</v>
       </c>
       <c r="B757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
@@ -8798,7 +8798,7 @@
         <v>643</v>
       </c>
       <c r="B758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
@@ -8806,7 +8806,7 @@
         <v>219</v>
       </c>
       <c r="B759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
@@ -8814,7 +8814,7 @@
         <v>333</v>
       </c>
       <c r="B760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
@@ -8822,7 +8822,7 @@
         <v>671</v>
       </c>
       <c r="B761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
@@ -8830,7 +8830,7 @@
         <v>325</v>
       </c>
       <c r="B762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
@@ -8838,7 +8838,7 @@
         <v>11</v>
       </c>
       <c r="B763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
@@ -8846,7 +8846,7 @@
         <v>145</v>
       </c>
       <c r="B764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
@@ -8854,7 +8854,7 @@
         <v>38</v>
       </c>
       <c r="B765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
@@ -8862,7 +8862,7 @@
         <v>687</v>
       </c>
       <c r="B766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
@@ -8870,7 +8870,7 @@
         <v>581</v>
       </c>
       <c r="B767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
@@ -8878,7 +8878,7 @@
         <v>217</v>
       </c>
       <c r="B768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
@@ -8886,7 +8886,7 @@
         <v>224</v>
       </c>
       <c r="B769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
@@ -8894,7 +8894,7 @@
         <v>691</v>
       </c>
       <c r="B770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
@@ -8902,7 +8902,7 @@
         <v>305</v>
       </c>
       <c r="B771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
@@ -8910,7 +8910,7 @@
         <v>604</v>
       </c>
       <c r="B772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
@@ -8918,7 +8918,7 @@
         <v>81</v>
       </c>
       <c r="B773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
@@ -8926,7 +8926,7 @@
         <v>320</v>
       </c>
       <c r="B774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
@@ -8934,7 +8934,7 @@
         <v>705</v>
       </c>
       <c r="B775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
@@ -8942,7 +8942,7 @@
         <v>88</v>
       </c>
       <c r="B776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
@@ -8950,7 +8950,7 @@
         <v>177</v>
       </c>
       <c r="B777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
@@ -8958,7 +8958,7 @@
         <v>448</v>
       </c>
       <c r="B778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
@@ -8966,7 +8966,7 @@
         <v>285</v>
       </c>
       <c r="B779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
@@ -8974,7 +8974,7 @@
         <v>719</v>
       </c>
       <c r="B780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
@@ -8982,7 +8982,7 @@
         <v>399</v>
       </c>
       <c r="B781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
@@ -8990,7 +8990,7 @@
         <v>704</v>
       </c>
       <c r="B782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
@@ -8998,7 +8998,7 @@
         <v>295</v>
       </c>
       <c r="B783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
@@ -9006,7 +9006,7 @@
         <v>234</v>
       </c>
       <c r="B784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
@@ -9014,7 +9014,7 @@
         <v>629</v>
       </c>
       <c r="B785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
@@ -9022,7 +9022,7 @@
         <v>84</v>
       </c>
       <c r="B786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
@@ -9030,7 +9030,7 @@
         <v>748</v>
       </c>
       <c r="B787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
@@ -9038,7 +9038,7 @@
         <v>73</v>
       </c>
       <c r="B788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
@@ -9046,7 +9046,7 @@
         <v>328</v>
       </c>
       <c r="B789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
